--- a/xlsx/1号加利福尼亚州州道_intext.xlsx
+++ b/xlsx/1号加利福尼亚州州道_intext.xlsx
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克魯茲 (加利福尼亞州)</t>
+    <t>圣塔克鲁兹 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/280%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>280號州際公路 (加利福尼亞州)</t>
+    <t>280号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%88%A9%E5%9F%8E</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E5%A0%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布拉格堡 (加利福尼亞州)</t>
+    <t>布拉格堡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%AE%B5</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%9B%BE%E6%8B%89%E5%8E%BF</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E5%A4%A7%E6%A1%A5</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A2%A8%E6%99%AF%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>美國風景道路</t>
+    <t>美国风景道路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%9C%B0%E5%8C%BA</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E9%AB%98%E9%80%9F%E5%8F%8A%E5%BF%AB%E9%80%9F%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>加州高速及快速公路系統</t>
+    <t>加州高速及快速公路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E4%BF%9D</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯保</t>
+    <t>圣路易斯-奥比斯保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A2%85%E5%B0%94%E6%B5%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%99%BB%E5%A0%A1%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>范登堡空軍基地</t>
+    <t>范登堡空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%A3%AE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>佛森 (加利福尼亞州)</t>
+    <t>佛森 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ventura_River</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>南太平洋鐵路</t>
+    <t>南太平洋铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1%E6%97%B6%E6%9C%9F</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%93%A2%E8%9F%B2%C2%B7%E7%B4%84%E7%BF%B0%E9%81%9C</t>
   </si>
   <si>
-    <t>小瓢蟲·約翰遜</t>
+    <t>小瓢虫·约翰逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%8F%A4%E7%BA%B3%E6%B5%B7%E6%BB%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E5%8D%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/205%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>205號州際公路 (加利福尼亞州)</t>
+    <t>205号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/238%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>238號州際公路</t>
+    <t>238号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/380%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>380號州際公路 (加利福尼亞州)</t>
+    <t>380号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/480%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
@@ -443,37 +443,37 @@
     <t>https://zh.wikipedia.org/wiki/505%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>505號州際公路</t>
+    <t>505号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/580%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>580號州際公路 (加利福尼亞州)</t>
+    <t>580号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/680%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>680號州際公路 (加利福尼亞州)</t>
+    <t>680号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/780%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>780號州際公路</t>
+    <t>780号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/880%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>880號州際公路</t>
+    <t>880号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/980%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>980號州際公路</t>
+    <t>980号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/84%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
